--- a/Customer/Elas/Object Migrate Overview.xlsx
+++ b/Customer/Elas/Object Migrate Overview.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="1130">
   <si>
     <t>Type</t>
   </si>
@@ -3401,13 +3401,34 @@
   </si>
   <si>
     <t>Length</t>
+  </si>
+  <si>
+    <t>Client Monitor</t>
+  </si>
+  <si>
+    <t>Not used</t>
+  </si>
+  <si>
+    <t>Target only</t>
+  </si>
+  <si>
+    <t>Not merged</t>
+  </si>
+  <si>
+    <t>Will be deleted</t>
+  </si>
+  <si>
+    <t>System table</t>
+  </si>
+  <si>
+    <t>Nota actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3419,6 +3440,34 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3465,7 +3514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3486,6 +3535,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -14263,7 +14324,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B679"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -19719,19 +19780,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A92" sqref="A92:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -19739,248 +19802,374 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>1081</v>
       </c>
       <c r="B2" s="7">
         <v>33642</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>1082</v>
       </c>
       <c r="B3" s="7">
         <v>34788</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>1083</v>
       </c>
       <c r="B4" s="7">
         <v>33835</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>540</v>
       </c>
       <c r="B5" s="7">
         <v>53510</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>542</v>
       </c>
       <c r="B6" s="7">
         <v>861</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="C6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>488</v>
       </c>
       <c r="B7" s="7">
         <v>5018</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="C7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>489</v>
       </c>
       <c r="B8" s="7">
         <v>466</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="C8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>490</v>
       </c>
       <c r="B9" s="7">
         <v>2852</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="C9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>491</v>
       </c>
       <c r="B10" s="7">
         <v>2344</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="C10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>492</v>
       </c>
       <c r="B11" s="7">
         <v>2307</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="C11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>493</v>
       </c>
       <c r="B12" s="7">
         <v>2616</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="C12" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>494</v>
       </c>
       <c r="B13" s="7">
         <v>2896</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="C13" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>495</v>
       </c>
       <c r="B14" s="7">
         <v>2366</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="C14" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>496</v>
       </c>
       <c r="B15" s="7">
         <v>4415</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="C15" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>497</v>
       </c>
       <c r="B16" s="7">
         <v>1910</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="C16" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>498</v>
       </c>
       <c r="B17" s="7">
         <v>8180</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="C17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>499</v>
       </c>
       <c r="B18" s="7">
         <v>2001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="C18" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>1084</v>
       </c>
       <c r="B19" s="7">
         <v>121566</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>543</v>
       </c>
       <c r="B20" s="7">
         <v>6676</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="C20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>1085</v>
       </c>
       <c r="B21" s="7">
         <v>1850</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="C21" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>544</v>
       </c>
       <c r="B22" s="7">
         <v>1544</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="C22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>1086</v>
       </c>
       <c r="B23" s="7">
         <v>3151</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="C23" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="7">
         <v>1053</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="C24" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>546</v>
       </c>
       <c r="B25" s="7">
         <v>1452</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="C25" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>547</v>
       </c>
       <c r="B26" s="7">
         <v>1640</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="C26" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>1087</v>
       </c>
       <c r="B27" s="7">
         <v>2692</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="C27" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>548</v>
       </c>
       <c r="B28" s="7">
         <v>37910</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>1088</v>
       </c>
       <c r="B29" s="7">
         <v>9088</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>549</v>
       </c>
       <c r="B30" s="7">
         <v>5952</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>1089</v>
       </c>
       <c r="B31" s="7">
         <v>121124</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>1090</v>
       </c>
       <c r="B32" s="7">
@@ -19988,7 +20177,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="11" t="s">
         <v>1091</v>
       </c>
       <c r="B33" s="7">
@@ -19996,7 +20185,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="11" t="s">
         <v>1092</v>
       </c>
       <c r="B34" s="7">
@@ -20004,7 +20193,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="11" t="s">
         <v>1093</v>
       </c>
       <c r="B35" s="7">
@@ -20012,7 +20201,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="11" t="s">
         <v>550</v>
       </c>
       <c r="B36" s="7">
@@ -20020,7 +20209,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="11" t="s">
         <v>1094</v>
       </c>
       <c r="B37" s="7">
@@ -20028,7 +20217,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="11" t="s">
         <v>551</v>
       </c>
       <c r="B38" s="7">
@@ -20036,7 +20225,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="11" t="s">
         <v>1095</v>
       </c>
       <c r="B39" s="7">
@@ -20044,7 +20233,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="11" t="s">
         <v>1096</v>
       </c>
       <c r="B40" s="7">
@@ -20052,7 +20241,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="11" t="s">
         <v>1097</v>
       </c>
       <c r="B41" s="7">
@@ -20060,7 +20249,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="11" t="s">
         <v>1098</v>
       </c>
       <c r="B42" s="7">
@@ -20068,7 +20257,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="11" t="s">
         <v>1099</v>
       </c>
       <c r="B43" s="7">
@@ -20076,7 +20265,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="11" t="s">
         <v>552</v>
       </c>
       <c r="B44" s="7">
@@ -20084,7 +20273,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="11" t="s">
         <v>553</v>
       </c>
       <c r="B45" s="7">
@@ -20092,7 +20281,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="11" t="s">
         <v>1100</v>
       </c>
       <c r="B46" s="7">
@@ -20100,7 +20289,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="11" t="s">
         <v>1101</v>
       </c>
       <c r="B47" s="7">
@@ -20108,7 +20297,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="11" t="s">
         <v>1102</v>
       </c>
       <c r="B48" s="7">
@@ -20116,7 +20305,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="11" t="s">
         <v>500</v>
       </c>
       <c r="B49" s="7">
@@ -20124,7 +20313,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="11" t="s">
         <v>501</v>
       </c>
       <c r="B50" s="7">
@@ -20132,7 +20321,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="11" t="s">
         <v>502</v>
       </c>
       <c r="B51" s="7">
@@ -20140,7 +20329,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="11" t="s">
         <v>503</v>
       </c>
       <c r="B52" s="7">
@@ -20148,7 +20337,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="11" t="s">
         <v>504</v>
       </c>
       <c r="B53" s="7">
@@ -20156,7 +20345,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="11" t="s">
         <v>505</v>
       </c>
       <c r="B54" s="7">
@@ -20164,7 +20353,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="11" t="s">
         <v>506</v>
       </c>
       <c r="B55" s="7">
@@ -20172,7 +20361,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="11" t="s">
         <v>507</v>
       </c>
       <c r="B56" s="7">
@@ -20180,7 +20369,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="11" t="s">
         <v>508</v>
       </c>
       <c r="B57" s="7">
@@ -20188,7 +20377,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="11" t="s">
         <v>509</v>
       </c>
       <c r="B58" s="7">
@@ -20196,7 +20385,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="11" t="s">
         <v>510</v>
       </c>
       <c r="B59" s="7">
@@ -20204,7 +20393,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="11" t="s">
         <v>1103</v>
       </c>
       <c r="B60" s="7">
@@ -20212,7 +20401,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="11" t="s">
         <v>1104</v>
       </c>
       <c r="B61" s="7">
@@ -20220,7 +20409,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="11" t="s">
         <v>1105</v>
       </c>
       <c r="B62" s="7">
@@ -20228,7 +20417,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="11" t="s">
         <v>554</v>
       </c>
       <c r="B63" s="7">
@@ -20236,7 +20425,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="11" t="s">
         <v>1106</v>
       </c>
       <c r="B64" s="7">
@@ -20244,7 +20433,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="11" t="s">
         <v>1107</v>
       </c>
       <c r="B65" s="7">
@@ -20252,7 +20441,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="11" t="s">
         <v>1108</v>
       </c>
       <c r="B66" s="7">
@@ -20260,7 +20449,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="11" t="s">
         <v>1109</v>
       </c>
       <c r="B67" s="7">
@@ -20268,7 +20457,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="11" t="s">
         <v>511</v>
       </c>
       <c r="B68" s="7">
@@ -20276,7 +20465,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="11" t="s">
         <v>512</v>
       </c>
       <c r="B69" s="7">
@@ -20284,7 +20473,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="11" t="s">
         <v>513</v>
       </c>
       <c r="B70" s="7">
@@ -20292,7 +20481,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="11" t="s">
         <v>514</v>
       </c>
       <c r="B71" s="7">
@@ -20300,7 +20489,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="11" t="s">
         <v>515</v>
       </c>
       <c r="B72" s="7">
@@ -20308,7 +20497,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="11" t="s">
         <v>516</v>
       </c>
       <c r="B73" s="7">
@@ -20316,7 +20505,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="11" t="s">
         <v>1110</v>
       </c>
       <c r="B74" s="7">
@@ -20324,7 +20513,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="11" t="s">
         <v>1111</v>
       </c>
       <c r="B75" s="7">
@@ -20332,7 +20521,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="11" t="s">
         <v>517</v>
       </c>
       <c r="B76" s="7">
@@ -20340,7 +20529,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="11" t="s">
         <v>1112</v>
       </c>
       <c r="B77" s="7">
@@ -20348,7 +20537,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="11" t="s">
         <v>555</v>
       </c>
       <c r="B78" s="7">
@@ -20356,7 +20545,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="11" t="s">
         <v>1113</v>
       </c>
       <c r="B79" s="7">
@@ -20364,7 +20553,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="11" t="s">
         <v>518</v>
       </c>
       <c r="B80" s="7">
@@ -20372,7 +20561,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="11" t="s">
         <v>519</v>
       </c>
       <c r="B81" s="7">
@@ -20380,7 +20569,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="11" t="s">
         <v>520</v>
       </c>
       <c r="B82" s="7">
@@ -20388,7 +20577,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="11" t="s">
         <v>521</v>
       </c>
       <c r="B83" s="7">
@@ -20396,7 +20585,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="11" t="s">
         <v>522</v>
       </c>
       <c r="B84" s="7">
@@ -20404,7 +20593,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="11" t="s">
         <v>523</v>
       </c>
       <c r="B85" s="7">
@@ -20412,7 +20601,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="11" t="s">
         <v>1114</v>
       </c>
       <c r="B86" s="7">
@@ -20420,7 +20609,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="11" t="s">
         <v>1115</v>
       </c>
       <c r="B87" s="7">
@@ -20428,7 +20617,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="11" t="s">
         <v>1116</v>
       </c>
       <c r="B88" s="7">
@@ -20436,7 +20625,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="11" t="s">
         <v>1117</v>
       </c>
       <c r="B89" s="7">
@@ -20444,7 +20633,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="11" t="s">
         <v>1118</v>
       </c>
       <c r="B90" s="7">
@@ -20452,7 +20641,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="11" t="s">
         <v>1119</v>
       </c>
       <c r="B91" s="7">
@@ -20460,7 +20649,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="11" t="s">
         <v>1120</v>
       </c>
       <c r="B92" s="7">
@@ -20468,7 +20657,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="11" t="s">
         <v>1121</v>
       </c>
       <c r="B93" s="7">
@@ -20705,312 +20894,24 @@
       <sortCondition ref="A2:A93"/>
     </sortState>
   </autoFilter>
+  <sortState ref="A2:B149">
+    <sortCondition ref="A2:A149"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C36"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A52" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>493</v>
-      </c>
-      <c r="B6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>494</v>
-      </c>
-      <c r="B7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>495</v>
-      </c>
-      <c r="B8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>496</v>
-      </c>
-      <c r="B9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>497</v>
-      </c>
-      <c r="B10" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B11" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>499</v>
-      </c>
-      <c r="B12" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>500</v>
-      </c>
-      <c r="B13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>501</v>
-      </c>
-      <c r="B14" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>502</v>
-      </c>
-      <c r="B15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>503</v>
-      </c>
-      <c r="B16" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>504</v>
-      </c>
-      <c r="B17" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>505</v>
-      </c>
-      <c r="B18" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>506</v>
-      </c>
-      <c r="B19" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>507</v>
-      </c>
-      <c r="B20" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>508</v>
-      </c>
-      <c r="B21" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>509</v>
-      </c>
-      <c r="B22" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>510</v>
-      </c>
-      <c r="B23" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>511</v>
-      </c>
-      <c r="B24" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>512</v>
-      </c>
-      <c r="B25" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>513</v>
-      </c>
-      <c r="B26" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>514</v>
-      </c>
-      <c r="B27" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>515</v>
-      </c>
-      <c r="B28" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>516</v>
-      </c>
-      <c r="B29" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>517</v>
-      </c>
-      <c r="B30" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>518</v>
-      </c>
-      <c r="B31" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>519</v>
-      </c>
-      <c r="B32" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>520</v>
-      </c>
-      <c r="B33" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>521</v>
-      </c>
-      <c r="B34" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>522</v>
-      </c>
-      <c r="B35" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>523</v>
-      </c>
-      <c r="B36" t="s">
-        <v>460</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Customer/Elas/Object Migrate Overview.xlsx
+++ b/Customer/Elas/Object Migrate Overview.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Customer DB Changed" sheetId="1" r:id="rId1"/>
     <sheet name="Diff in Merged NAV2016" sheetId="2" r:id="rId2"/>
-    <sheet name="Diff in Megred NAV2009" sheetId="3" r:id="rId3"/>
-    <sheet name="Ark4" sheetId="4" r:id="rId4"/>
+    <sheet name="Diff in Merged NAV2009" sheetId="3" r:id="rId3"/>
+    <sheet name="Diff in Merged NAV2015" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Customer DB Changed'!$A$1:$J$365</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Diff in Megred NAV2009'!$A$1:$B$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Diff in Merged NAV2009'!$B$1:$C$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Diff in Merged NAV2016'!$A$1:$C$679</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="1160">
   <si>
     <t>Type</t>
   </si>
@@ -3401,13 +3401,124 @@
   </si>
   <si>
     <t>Length</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Version List</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Locked</t>
+  </si>
+  <si>
+    <t>Locked By</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>NAVW17.00</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.38457,NAVNO8.00.00.38457</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.45244,NAVNO8.00.00.45244</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.38457</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.44973,NAVNO8.00.00.44973</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.45244</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.42222</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.44363,NAVNO8.00.00.44363</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.42951,NAVNO8.00.00.42951</t>
+  </si>
+  <si>
+    <t>NAVW18.00</t>
+  </si>
+  <si>
+    <t>NAVW18.00,NAVNO8.00</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.41779,NAVNO8.00.00.41779</t>
+  </si>
+  <si>
+    <t>NAVW16.00</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.38798</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.44363</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.40459</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.42951</t>
+  </si>
+  <si>
+    <t>NAVW17.10</t>
+  </si>
+  <si>
+    <t>NAVW18.00.00.41370</t>
+  </si>
+  <si>
+    <t>Target only</t>
+  </si>
+  <si>
+    <t>Not merged</t>
+  </si>
+  <si>
+    <t>Not used</t>
+  </si>
+  <si>
+    <t>Client Monitor</t>
+  </si>
+  <si>
+    <t>Will be deleted</t>
+  </si>
+  <si>
+    <t>Nota actual</t>
+  </si>
+  <si>
+    <t>System table</t>
+  </si>
+  <si>
+    <t>Table ID</t>
+  </si>
+  <si>
+    <t>Use Target version</t>
+  </si>
+  <si>
+    <t>Find in NAV2009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3419,6 +3530,34 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3465,7 +3604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3482,10 +3621,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -19719,1295 +19878,3833 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="10"/>
+    <col min="2" max="2" width="18.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3131</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10">
+        <f>VLOOKUP(A2,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C3" s="12">
+        <v>31998</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
+        <f>VLOOKUP(A3,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>18</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C4" s="12">
+        <v>121566</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10">
+        <f>VLOOKUP(A4,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>21</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C5" s="12">
+        <v>37910</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
+        <f>VLOOKUP(A5,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>23</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C6" s="12">
+        <v>121124</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <f>VLOOKUP(A6,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C7" s="12">
+        <v>35571</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
+        <f>VLOOKUP(A7,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>27</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C8" s="12">
+        <v>185197</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <f>VLOOKUP(A8,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>32</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C9" s="12">
+        <v>31827</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <f>VLOOKUP(A9,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>36</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C10" s="12">
+        <v>272423</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <f>VLOOKUP(A10,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>37</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C11" s="12">
+        <v>299378</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <f>VLOOKUP(A11,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>38</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="12">
+        <v>214367</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <f>VLOOKUP(A12,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>39</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C13" s="12">
+        <v>309463</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
+        <f>VLOOKUP(A13,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>79</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C14" s="12">
+        <v>251727</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <f>VLOOKUP(A14,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>81</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C15" s="12">
+        <v>291331</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <f>VLOOKUP(A15,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>83</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C16" s="12">
+        <v>170601</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
+        <f>VLOOKUP(A16,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>110</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>1081</v>
       </c>
-      <c r="B2" s="7">
+      <c r="C17" s="12">
         <v>33642</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <f>VLOOKUP(A17,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>112</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>1082</v>
       </c>
-      <c r="B3" s="7">
+      <c r="C18" s="12">
         <v>34788</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <f>VLOOKUP(A18,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>114</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>1083</v>
       </c>
-      <c r="B4" s="7">
+      <c r="C19" s="12">
         <v>33835</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
+        <f>VLOOKUP(A19,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>222</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C20" s="12">
+        <v>9088</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10">
+        <f>VLOOKUP(A20,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>225</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="C21" s="12">
+        <v>5952</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="e">
+        <f>VLOOKUP(A21,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>246</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C22" s="12">
+        <v>157918</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="e">
+        <f>VLOOKUP(A22,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>266</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2912</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
+        <f>VLOOKUP(A23,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>295</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C24" s="12">
+        <v>47139</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="e">
+        <f>VLOOKUP(A24,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>302</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="C25" s="12">
+        <v>43238</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="e">
+        <f>VLOOKUP(A25,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>311</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C26" s="12">
+        <v>18134</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
+        <f>VLOOKUP(A26,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>312</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C27" s="12">
+        <v>11669</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
+        <f>VLOOKUP(A27,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>313</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C28" s="12">
+        <v>13435</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
+        <f>VLOOKUP(A28,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>337</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C29" s="12">
+        <v>19125</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
+        <f>VLOOKUP(A29,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>5050</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C30" s="12">
+        <v>102164</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
+        <f>VLOOKUP(A30,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>5071</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C31" s="12">
+        <v>29269</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="e">
+        <f>VLOOKUP(A31,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>5404</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C32" s="12">
+        <v>13549</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10">
+        <f>VLOOKUP(A32,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>5407</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C33" s="12">
+        <v>69220</v>
+      </c>
+      <c r="F33" s="10">
+        <f>VLOOKUP(A33,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>5407</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C34" s="12">
+        <v>76083</v>
+      </c>
+      <c r="F34" s="10">
+        <f>VLOOKUP(A34,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>5409</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C35" s="12">
+        <v>61743</v>
+      </c>
+      <c r="F35" s="10">
+        <f>VLOOKUP(A35,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>5410</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C36" s="12">
+        <v>10424</v>
+      </c>
+      <c r="F36" s="10">
+        <f>VLOOKUP(A36,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>5414</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C37" s="12">
+        <v>3222</v>
+      </c>
+      <c r="F37" s="10" t="e">
+        <f>VLOOKUP(A37,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>5802</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C38" s="12">
+        <v>38195</v>
+      </c>
+      <c r="F38" s="10">
+        <f>VLOOKUP(A38,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>5832</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C39" s="12">
+        <v>15356</v>
+      </c>
+      <c r="F39" s="10" t="e">
+        <f>VLOOKUP(A39,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>50000</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="C40" s="12">
+        <v>806</v>
+      </c>
+      <c r="F40" s="10">
+        <f>VLOOKUP(A40,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>50001</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="C41" s="12">
+        <v>787</v>
+      </c>
+      <c r="F41" s="10">
+        <f>VLOOKUP(A41,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>50001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>50002</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="C42" s="12">
+        <v>1283</v>
+      </c>
+      <c r="F42" s="10">
+        <f>VLOOKUP(A42,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>50003</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="C43" s="12">
+        <v>5811</v>
+      </c>
+      <c r="F43" s="10">
+        <f>VLOOKUP(A43,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>50004</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C44" s="12">
+        <v>1497</v>
+      </c>
+      <c r="F44" s="10">
+        <f>VLOOKUP(A44,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>50005</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C45" s="12">
+        <v>2278</v>
+      </c>
+      <c r="F45" s="10">
+        <f>VLOOKUP(A45,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>50006</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="C46" s="12">
+        <v>2544</v>
+      </c>
+      <c r="F46" s="10">
+        <f>VLOOKUP(A46,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>50006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>50007</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C47" s="12">
+        <v>1129</v>
+      </c>
+      <c r="F47" s="10">
+        <f>VLOOKUP(A47,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>50008</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="C48" s="12">
+        <v>1547</v>
+      </c>
+      <c r="F48" s="10">
+        <f>VLOOKUP(A48,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>50009</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C49" s="12">
+        <v>5909</v>
+      </c>
+      <c r="F49" s="10">
+        <f>VLOOKUP(A49,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>58001</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="C50" s="12">
+        <v>3555</v>
+      </c>
+      <c r="F50" s="10">
+        <f>VLOOKUP(A50,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>58001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>58002</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C51" s="12">
+        <v>4815</v>
+      </c>
+      <c r="F51" s="10">
+        <f>VLOOKUP(A51,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>58002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>58003</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C52" s="12">
+        <v>3650</v>
+      </c>
+      <c r="F52" s="10">
+        <f>VLOOKUP(A52,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>58003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>58004</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="C53" s="12">
+        <v>25529</v>
+      </c>
+      <c r="F53" s="10">
+        <f>VLOOKUP(A53,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>58004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>58005</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C54" s="12">
+        <v>2759</v>
+      </c>
+      <c r="F54" s="10">
+        <f>VLOOKUP(A54,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>58005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>58006</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="C55" s="12">
+        <v>1270</v>
+      </c>
+      <c r="F55" s="10">
+        <f>VLOOKUP(A55,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>58006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>83450</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C56" s="12">
+        <v>4806</v>
+      </c>
+      <c r="F56" s="10">
+        <f>VLOOKUP(A56,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>83450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>83451</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="C57" s="12">
+        <v>4751</v>
+      </c>
+      <c r="F57" s="10">
+        <f>VLOOKUP(A57,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>83451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>83460</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="C58" s="12">
+        <v>3553</v>
+      </c>
+      <c r="F58" s="10">
+        <f>VLOOKUP(A58,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>83460</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>83470</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C59" s="12">
+        <v>4088</v>
+      </c>
+      <c r="F59" s="10">
+        <f>VLOOKUP(A59,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>83470</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>86450</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C60" s="12">
+        <v>1340</v>
+      </c>
+      <c r="F60" s="10">
+        <f>VLOOKUP(A60,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>86450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>86451</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="C61" s="12">
+        <v>1196</v>
+      </c>
+      <c r="F61" s="10">
+        <f>VLOOKUP(A61,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>86451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>50010</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="C62" s="12">
+        <v>466</v>
+      </c>
+      <c r="F62" s="10">
+        <f>VLOOKUP(A62,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>7035500</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C63" s="12">
+        <v>16962</v>
+      </c>
+      <c r="F63" s="10">
+        <f>VLOOKUP(A63,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>7035500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>15000004</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="B5" s="7">
+      <c r="C64" s="12">
         <v>53510</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="F64" s="10" t="e">
+        <f>VLOOKUP(A64,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>99000758</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C65" s="12">
+        <v>35062</v>
+      </c>
+      <c r="F65" s="10">
+        <f>VLOOKUP(A65,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>99000758</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>99000760</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C66" s="12">
+        <v>10811</v>
+      </c>
+      <c r="F66" s="10">
+        <f>VLOOKUP(A66,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>99000760</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>99000761</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C67" s="12">
+        <v>1379</v>
+      </c>
+      <c r="F67" s="10">
+        <f>VLOOKUP(A67,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>99000761</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>99000762</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C68" s="12">
+        <v>947</v>
+      </c>
+      <c r="F68" s="10">
+        <f>VLOOKUP(A68,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>99000762</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>99000764</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C69" s="12">
+        <v>25665</v>
+      </c>
+      <c r="F69" s="10">
+        <f>VLOOKUP(A69,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>99000764</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>99000765</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C70" s="12">
+        <v>7839</v>
+      </c>
+      <c r="F70" s="10">
+        <f>VLOOKUP(A70,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>99000765</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>99000771</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C71" s="12">
+        <v>10458</v>
+      </c>
+      <c r="F71" s="10">
+        <f>VLOOKUP(A71,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>99000771</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>99000772</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C72" s="12">
+        <v>18951</v>
+      </c>
+      <c r="F72" s="10">
+        <f>VLOOKUP(A72,'Diff in Merged NAV2015'!$B$2:$B$64,1,)</f>
+        <v>99000772</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B6" s="7">
+      <c r="C73" s="12">
         <v>861</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="D73" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="B7" s="7">
+      <c r="C74" s="12">
         <v>5018</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="D74" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="B8" s="7">
+      <c r="C75" s="12">
         <v>466</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="D75" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="B9" s="7">
+      <c r="C76" s="12">
         <v>2852</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="D76" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="B10" s="7">
+      <c r="C77" s="12">
         <v>2344</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="D77" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="B11" s="7">
+      <c r="C78" s="12">
         <v>2307</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="D78" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="B12" s="7">
+      <c r="C79" s="12">
         <v>2616</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="D79" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="B13" s="7">
+      <c r="C80" s="12">
         <v>2896</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="D80" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="B14" s="7">
+      <c r="C81" s="12">
         <v>2366</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="D81" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="B15" s="7">
+      <c r="C82" s="12">
         <v>4415</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="D82" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="B16" s="7">
+      <c r="C83" s="12">
         <v>1910</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="D83" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="B17" s="7">
+      <c r="C84" s="12">
         <v>8180</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="D84" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="B18" s="7">
+      <c r="C85" s="12">
         <v>2001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B19" s="7">
-        <v>121566</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="D85" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="B20" s="7">
+      <c r="C86" s="12">
         <v>6676</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="D86" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="14" t="s">
         <v>1085</v>
       </c>
-      <c r="B21" s="7">
+      <c r="C87" s="12">
         <v>1850</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="D87" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="B22" s="7">
+      <c r="C88" s="12">
         <v>1544</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="D88" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="14" t="s">
         <v>1086</v>
       </c>
-      <c r="B23" s="7">
+      <c r="C89" s="12">
         <v>3151</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="D89" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="B24" s="7">
+      <c r="C90" s="12">
         <v>1053</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="D90" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="B25" s="7">
+      <c r="C91" s="12">
         <v>1452</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="D91" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="B26" s="7">
+      <c r="C92" s="12">
         <v>1640</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="D92" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="14" t="s">
         <v>1087</v>
       </c>
-      <c r="B27" s="7">
+      <c r="C93" s="12">
         <v>2692</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="B28" s="7">
-        <v>37910</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B29" s="7">
-        <v>9088</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="B30" s="7">
-        <v>5952</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B31" s="7">
-        <v>121124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B32" s="7">
-        <v>157918</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B33" s="7">
-        <v>35571</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B34" s="7">
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B35" s="7">
-        <v>185197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="B36" s="7">
-        <v>47139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B37" s="7">
-        <v>3131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="B38" s="7">
-        <v>43238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B39" s="7">
-        <v>18134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B40" s="7">
-        <v>11669</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B41" s="7">
-        <v>13435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B42" s="7">
-        <v>31827</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B43" s="7">
-        <v>19125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="B44" s="7">
-        <v>272423</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="B45" s="7">
-        <v>299378</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B46" s="7">
-        <v>214367</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B47" s="7">
-        <v>309463</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B48" s="7">
-        <v>31998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="B49" s="7">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="B50" s="7">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="B51" s="7">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="B52" s="7">
-        <v>5811</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="B53" s="7">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="B54" s="7">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="B55" s="7">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="B56" s="7">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="B57" s="7">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B58" s="7">
-        <v>5909</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="B59" s="7">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B60" s="7">
-        <v>102164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B61" s="7">
-        <v>29269</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B62" s="7">
-        <v>13549</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="B63" s="7">
-        <v>69220</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B64" s="7">
-        <v>76083</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B65" s="7">
-        <v>61743</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B66" s="7">
-        <v>10424</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B67" s="7">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B68" s="7">
-        <v>3555</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="B69" s="7">
-        <v>4815</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="B70" s="7">
-        <v>3650</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="B71" s="7">
-        <v>25529</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="B72" s="7">
-        <v>2759</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="B73" s="7">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B74" s="7">
-        <v>38195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B75" s="7">
-        <v>15356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="B76" s="7">
-        <v>16962</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B77" s="7">
-        <v>251727</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="B78" s="7">
-        <v>291331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B79" s="7">
-        <v>170601</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B80" s="7">
-        <v>4806</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="B81" s="7">
-        <v>4751</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="B82" s="7">
-        <v>3553</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="B83" s="7">
-        <v>4088</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="B84" s="7">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="B85" s="7">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B86" s="7">
-        <v>35062</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B87" s="7">
-        <v>10811</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B88" s="7">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B89" s="7">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B90" s="7">
-        <v>25665</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B91" s="7">
-        <v>7839</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B92" s="7">
-        <v>10458</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B93" s="7">
-        <v>18951</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94"/>
-      <c r="B94"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95"/>
-      <c r="B95"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96"/>
-      <c r="B96"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100"/>
-      <c r="B100"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101"/>
-      <c r="B101"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102"/>
-      <c r="B102"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103"/>
-      <c r="B103"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104"/>
-      <c r="B104"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105"/>
-      <c r="B105"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106"/>
-      <c r="B106"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107"/>
-      <c r="B107"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108"/>
-      <c r="B108"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109"/>
-      <c r="B109"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110"/>
-      <c r="B110"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111"/>
-      <c r="B111"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112"/>
-      <c r="B112"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113"/>
-      <c r="B113"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114"/>
-      <c r="B114"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115"/>
-      <c r="B115"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116"/>
-      <c r="B116"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117"/>
-      <c r="B117"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118"/>
-      <c r="B118"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119"/>
-      <c r="B119"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120"/>
-      <c r="B120"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121"/>
-      <c r="B121"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122"/>
-      <c r="B122"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123"/>
-      <c r="B123"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124"/>
-      <c r="B124"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125"/>
-      <c r="B125"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126"/>
-      <c r="B126"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127"/>
-      <c r="B127"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128"/>
-      <c r="B128"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129"/>
-      <c r="B129"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130"/>
-      <c r="B130"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131"/>
-      <c r="B131"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132"/>
-      <c r="B132"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133"/>
-      <c r="B133"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134"/>
-      <c r="B134"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135"/>
-      <c r="B135"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136"/>
-      <c r="B136"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137"/>
-      <c r="B137"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138"/>
-      <c r="B138"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139"/>
-      <c r="B139"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140"/>
-      <c r="B140"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141"/>
-      <c r="B141"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142"/>
-      <c r="B142"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143"/>
-      <c r="B143"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144"/>
-      <c r="B144"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145"/>
-      <c r="B145"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146"/>
-      <c r="B146"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147"/>
-      <c r="B147"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148"/>
-      <c r="B148"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149"/>
-      <c r="B149"/>
+      <c r="D93" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B93">
-    <sortState ref="A2:B93">
-      <sortCondition ref="A2:A93"/>
-    </sortState>
-  </autoFilter>
+  <sortState ref="A2:E149">
+    <sortCondition ref="A2:A149"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>493</v>
-      </c>
-      <c r="B6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>494</v>
-      </c>
-      <c r="B7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>495</v>
-      </c>
-      <c r="B8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>496</v>
-      </c>
-      <c r="B9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>497</v>
-      </c>
-      <c r="B10" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B11" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>499</v>
-      </c>
-      <c r="B12" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>500</v>
-      </c>
-      <c r="B13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>501</v>
-      </c>
-      <c r="B14" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>502</v>
-      </c>
-      <c r="B15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>503</v>
-      </c>
-      <c r="B16" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>504</v>
-      </c>
-      <c r="B17" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>505</v>
-      </c>
-      <c r="B18" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>506</v>
-      </c>
-      <c r="B19" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>507</v>
-      </c>
-      <c r="B20" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>508</v>
-      </c>
-      <c r="B21" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>509</v>
-      </c>
-      <c r="B22" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>510</v>
-      </c>
-      <c r="B23" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>511</v>
-      </c>
-      <c r="B24" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>512</v>
-      </c>
-      <c r="B25" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>513</v>
-      </c>
-      <c r="B26" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>514</v>
-      </c>
-      <c r="B27" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>515</v>
-      </c>
-      <c r="B28" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>516</v>
-      </c>
-      <c r="B29" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>517</v>
-      </c>
-      <c r="B30" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>518</v>
-      </c>
-      <c r="B31" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>519</v>
-      </c>
-      <c r="B32" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>520</v>
-      </c>
-      <c r="B33" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>521</v>
-      </c>
-      <c r="B34" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>522</v>
-      </c>
-      <c r="B35" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>523</v>
-      </c>
-      <c r="B36" t="s">
-        <v>460</v>
+    <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41394</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K2">
+        <f>VLOOKUP(B2,B2,1,'Diff in Merged NAV2009'!A2:A93)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F3" s="1">
+        <v>41943</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K3" s="10">
+        <f>VLOOKUP(B3,B3,1,'Diff in Merged NAV2009'!A3:A94)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42426</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K4" s="10">
+        <f>VLOOKUP(B4,B4,1,'Diff in Merged NAV2009'!A4:A95)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F5" s="1">
+        <v>41943</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K5" s="10">
+        <f>VLOOKUP(B5,B5,1,'Diff in Merged NAV2009'!A5:A96)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F6" s="1">
+        <v>42398</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K6" s="10">
+        <f>VLOOKUP(B6,B6,1,'Diff in Merged NAV2009'!A6:A97)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F7" s="1">
+        <v>41943</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K7" s="10">
+        <f>VLOOKUP(B7,B7,1,'Diff in Merged NAV2009'!A7:A98)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F8" s="1">
+        <v>42426</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K8" s="10">
+        <f>VLOOKUP(B8,B8,1,'Diff in Merged NAV2009'!A8:A99)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F9" s="1">
+        <v>42216</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K9" s="10">
+        <f>VLOOKUP(B9,B9,1,'Diff in Merged NAV2009'!A9:A100)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F10" s="1">
+        <v>42426</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K10" s="10">
+        <f>VLOOKUP(B10,B10,1,'Diff in Merged NAV2009'!A10:A101)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42360</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K11" s="10">
+        <f>VLOOKUP(B11,B11,1,'Diff in Merged NAV2009'!A11:A102)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F12" s="1">
+        <v>42426</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K12" s="10">
+        <f>VLOOKUP(B12,B12,1,'Diff in Merged NAV2009'!A12:A103)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F13" s="1">
+        <v>42426</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K13" s="10">
+        <f>VLOOKUP(B13,B13,1,'Diff in Merged NAV2009'!A13:A104)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F14" s="1">
+        <v>42272</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K14" s="10">
+        <f>VLOOKUP(B14,B14,1,'Diff in Merged NAV2009'!A14:A105)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F15" s="1">
+        <v>42272</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K15" s="10">
+        <f>VLOOKUP(B15,B15,1,'Diff in Merged NAV2009'!A15:A106)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F16" s="1">
+        <v>42465</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.45025462962962964</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K16" s="10">
+        <f>VLOOKUP(B16,B16,1,'Diff in Merged NAV2009'!A16:A107)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F17" s="1">
+        <v>41891</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K17" s="10">
+        <f>VLOOKUP(B17,B17,1,'Diff in Merged NAV2009'!A17:A108)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F18" s="1">
+        <v>41891</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K18" s="10">
+        <f>VLOOKUP(B18,B18,1,'Diff in Merged NAV2009'!A18:A109)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F19" s="1">
+        <v>42181</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K19" s="10">
+        <f>VLOOKUP(B19,B19,1,'Diff in Merged NAV2009'!A19:A110)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>222</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F20" s="1">
+        <v>41891</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K20" s="10">
+        <f>VLOOKUP(B20,B20,1,'Diff in Merged NAV2009'!A20:A111)</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>266</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F21" s="1">
+        <v>42465</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.45200231481481484</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K21" s="10">
+        <f>VLOOKUP(B21,B21,1,'Diff in Merged NAV2009'!A21:A112)</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>311</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F22" s="1">
+        <v>42465</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.46984953703703702</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K22" s="10">
+        <f>VLOOKUP(B22,B22,1,'Diff in Merged NAV2009'!A22:A113)</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>312</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F23" s="1">
+        <v>41891</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K23" s="10">
+        <f>VLOOKUP(B23,B23,1,'Diff in Merged NAV2009'!A23:A114)</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>313</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F24" s="1">
+        <v>41891</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K24" s="10">
+        <f>VLOOKUP(B24,B24,1,'Diff in Merged NAV2009'!A24:A115)</f>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>337</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F25" s="1">
+        <v>41970</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K25" s="10">
+        <f>VLOOKUP(B25,B25,1,'Diff in Merged NAV2009'!A25:A116)</f>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>5050</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F26" s="1">
+        <v>42426</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K26" s="10">
+        <f>VLOOKUP(B26,B26,1,'Diff in Merged NAV2009'!A26:A117)</f>
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>5404</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F27" s="1">
+        <v>42360</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K27" s="10">
+        <f>VLOOKUP(B27,B27,1,'Diff in Merged NAV2009'!A27:A118)</f>
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>5405</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F28" s="1">
+        <v>42216</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K28" s="10">
+        <f>VLOOKUP(B28,B28,1,'Diff in Merged NAV2009'!A28:A119)</f>
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>5407</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F29" s="1">
+        <v>42465</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.47265046296296293</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K29" s="10">
+        <f>VLOOKUP(B29,B29,1,'Diff in Merged NAV2009'!A29:A120)</f>
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>5409</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F30" s="1">
+        <v>42465</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.47619212962962965</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K30" s="10">
+        <f>VLOOKUP(B30,B30,1,'Diff in Merged NAV2009'!A30:A121)</f>
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>5410</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F31" s="1">
+        <v>41540</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K31" s="10">
+        <f>VLOOKUP(B31,B31,1,'Diff in Merged NAV2009'!A31:A122)</f>
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>5802</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F32" s="1">
+        <v>42153</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K32" s="10">
+        <f>VLOOKUP(B32,B32,1,'Diff in Merged NAV2009'!A32:A123)</f>
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>50000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="1">
+        <v>38786</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.43254629629629626</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K33" s="10">
+        <f>VLOOKUP(B33,B33,1,'Diff in Merged NAV2009'!A33:A124)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>50001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="1">
+        <v>38786</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.43761574074074078</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K34" s="10">
+        <f>VLOOKUP(B34,B34,1,'Diff in Merged NAV2009'!A34:A125)</f>
+        <v>50001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>50002</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="1">
+        <v>38796</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.65285879629629628</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K35" s="10">
+        <f>VLOOKUP(B35,B35,1,'Diff in Merged NAV2009'!A35:A126)</f>
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>50003</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="1">
+        <v>38797</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.68042824074074071</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K36" s="10">
+        <f>VLOOKUP(B36,B36,1,'Diff in Merged NAV2009'!A36:A127)</f>
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>50004</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="1">
+        <v>39066</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.49019675925925926</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K37" s="10">
+        <f>VLOOKUP(B37,B37,1,'Diff in Merged NAV2009'!A37:A128)</f>
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>50005</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="1">
+        <v>38776</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.44607638888888884</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K38" s="10">
+        <f>VLOOKUP(B38,B38,1,'Diff in Merged NAV2009'!A38:A129)</f>
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>50006</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="1">
+        <v>38778</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.51806712962962964</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K39" s="10">
+        <f>VLOOKUP(B39,B39,1,'Diff in Merged NAV2009'!A39:A130)</f>
+        <v>50006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>50007</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="1">
+        <v>38776</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.44672453703703702</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K40" s="10">
+        <f>VLOOKUP(B40,B40,1,'Diff in Merged NAV2009'!A40:A131)</f>
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>50008</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="1">
+        <v>38778</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.55211805555555549</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K41" s="10">
+        <f>VLOOKUP(B41,B41,1,'Diff in Merged NAV2009'!A41:A132)</f>
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>50009</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="1">
+        <v>38883</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.44215277777777778</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K42" s="10">
+        <f>VLOOKUP(B42,B42,1,'Diff in Merged NAV2009'!A42:A133)</f>
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>50010</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F43" s="1">
+        <v>40039</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.43559027777777781</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K43" s="10">
+        <f>VLOOKUP(B43,B43,1,'Diff in Merged NAV2009'!A43:A134)</f>
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>58001</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="1">
+        <v>38826</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.51635416666666667</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K44" s="10">
+        <f>VLOOKUP(B44,B44,1,'Diff in Merged NAV2009'!A44:A135)</f>
+        <v>58001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>58002</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="1">
+        <v>41557</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.43562499999999998</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K45" s="10">
+        <f>VLOOKUP(B45,B45,1,'Diff in Merged NAV2009'!A45:A136)</f>
+        <v>58002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>58003</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="1">
+        <v>38849</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.47460648148148149</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K46" s="10">
+        <f>VLOOKUP(B46,B46,1,'Diff in Merged NAV2009'!A46:A137)</f>
+        <v>58003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>58004</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="1">
+        <v>42465</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.47673611111111108</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K47" s="10">
+        <f>VLOOKUP(B47,B47,1,'Diff in Merged NAV2009'!A47:A138)</f>
+        <v>58004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>58005</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="1">
+        <v>39329</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.72512731481481485</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K48" s="10">
+        <f>VLOOKUP(B48,B48,1,'Diff in Merged NAV2009'!A48:A139)</f>
+        <v>58005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>58006</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="1">
+        <v>40346</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.60158564814814819</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K49" s="10">
+        <f>VLOOKUP(B49,B49,1,'Diff in Merged NAV2009'!A49:A140)</f>
+        <v>58006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>83450</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="1">
+        <v>38701</v>
+      </c>
+      <c r="G50" s="2">
+        <v>7.1296296296296307E-3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K50" s="10">
+        <f>VLOOKUP(B50,B50,1,'Diff in Merged NAV2009'!A50:A141)</f>
+        <v>83450</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>83451</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="1">
+        <v>40200</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.67656250000000007</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K51" s="10">
+        <f>VLOOKUP(B51,B51,1,'Diff in Merged NAV2009'!A51:A142)</f>
+        <v>83451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>83460</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="1">
+        <v>40409</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.58607638888888891</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K52" s="10">
+        <f>VLOOKUP(B52,B52,1,'Diff in Merged NAV2009'!A52:A143)</f>
+        <v>83460</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>83470</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="1">
+        <v>38799</v>
+      </c>
+      <c r="G53" s="2">
+        <v>4.4328703703703703E-2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K53" s="10">
+        <f>VLOOKUP(B53,B53,1,'Diff in Merged NAV2009'!A53:A144)</f>
+        <v>83470</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>86450</v>
+      </c>
+      <c r="C54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="1">
+        <v>38805</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.45960648148148148</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K54" s="10">
+        <f>VLOOKUP(B54,B54,1,'Diff in Merged NAV2009'!A54:A145)</f>
+        <v>86450</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>86451</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="1">
+        <v>39002</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.45489583333333333</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K55" s="10">
+        <f>VLOOKUP(B55,B55,1,'Diff in Merged NAV2009'!A55:A146)</f>
+        <v>86451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>7035500</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="1">
+        <v>39924</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.35071759259259255</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K56" s="10">
+        <f>VLOOKUP(B56,B56,1,'Diff in Merged NAV2009'!A56:A147)</f>
+        <v>7035500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>99000758</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F57" s="1">
+        <v>41891</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K57" s="10">
+        <f>VLOOKUP(B57,B57,1,'Diff in Merged NAV2009'!A57:A148)</f>
+        <v>99000758</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>99000760</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F58" s="1">
+        <v>41394</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K58" s="10">
+        <f>VLOOKUP(B58,B58,1,'Diff in Merged NAV2009'!A58:A149)</f>
+        <v>99000760</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>99000761</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F59" s="1">
+        <v>41394</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K59" s="10">
+        <f>VLOOKUP(B59,B59,1,'Diff in Merged NAV2009'!A59:A150)</f>
+        <v>99000761</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>99000762</v>
+      </c>
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F60" s="1">
+        <v>41394</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K60" s="10">
+        <f>VLOOKUP(B60,B60,1,'Diff in Merged NAV2009'!A60:A151)</f>
+        <v>99000762</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>99000764</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F61" s="1">
+        <v>42465</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.47800925925925924</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K61" s="10">
+        <f>VLOOKUP(B61,B61,1,'Diff in Merged NAV2009'!A61:A152)</f>
+        <v>99000764</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>99000765</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F62" s="1">
+        <v>41891</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K62" s="10">
+        <f>VLOOKUP(B62,B62,1,'Diff in Merged NAV2009'!A62:A153)</f>
+        <v>99000765</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>99000771</v>
+      </c>
+      <c r="C63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F63" s="1">
+        <v>41891</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K63" s="10">
+        <f>VLOOKUP(B63,B63,1,'Diff in Merged NAV2009'!A63:A154)</f>
+        <v>99000771</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>99000772</v>
+      </c>
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F64" s="1">
+        <v>42360</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K64" s="10">
+        <f>VLOOKUP(B64,B64,1,'Diff in Merged NAV2009'!A64:A155)</f>
+        <v>99000772</v>
       </c>
     </row>
   </sheetData>
